--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H2">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.218359</v>
+        <v>0.3711636666666667</v>
       </c>
       <c r="N2">
-        <v>0.6550769999999999</v>
+        <v>1.113491</v>
       </c>
       <c r="O2">
-        <v>0.01966557738178061</v>
+        <v>0.0322568113697387</v>
       </c>
       <c r="P2">
-        <v>0.01966557738178061</v>
+        <v>0.03225681136973869</v>
       </c>
       <c r="Q2">
-        <v>0.3666273813079999</v>
+        <v>0.695722538692</v>
       </c>
       <c r="R2">
-        <v>3.299646431771999</v>
+        <v>6.261502848228</v>
       </c>
       <c r="S2">
-        <v>0.002316899456570095</v>
+        <v>0.004652034639668294</v>
       </c>
       <c r="T2">
-        <v>0.002316899456570095</v>
+        <v>0.004652034639668292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H3">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>18.369288</v>
       </c>
       <c r="O3">
-        <v>0.5514506761986974</v>
+        <v>0.5321413985496108</v>
       </c>
       <c r="P3">
-        <v>0.5514506761986975</v>
+        <v>0.5321413985496107</v>
       </c>
       <c r="Q3">
-        <v>10.280751661152</v>
+        <v>11.477351573856</v>
       </c>
       <c r="R3">
-        <v>92.526764950368</v>
+        <v>103.296164164704</v>
       </c>
       <c r="S3">
-        <v>0.06496914619927058</v>
+        <v>0.07674472814063439</v>
       </c>
       <c r="T3">
-        <v>0.06496914619927059</v>
+        <v>0.07674472814063436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H4">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I4">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J4">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.762160000000001</v>
+        <v>4.943314666666667</v>
       </c>
       <c r="N4">
-        <v>14.28648</v>
+        <v>14.829944</v>
       </c>
       <c r="O4">
-        <v>0.4288837464195219</v>
+        <v>0.4296098542617661</v>
       </c>
       <c r="P4">
-        <v>0.4288837464195219</v>
+        <v>0.4296098542617661</v>
       </c>
       <c r="Q4">
-        <v>7.995723785920001</v>
+        <v>9.265926970528</v>
       </c>
       <c r="R4">
-        <v>71.96151407328</v>
+        <v>83.393342734752</v>
       </c>
       <c r="S4">
-        <v>0.05052892674952645</v>
+        <v>0.06195776453724456</v>
       </c>
       <c r="T4">
-        <v>0.05052892674952646</v>
+        <v>0.06195776453724454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.197979</v>
+        <v>1.874436</v>
       </c>
       <c r="H5">
-        <v>9.593937</v>
+        <v>5.623308</v>
       </c>
       <c r="I5">
-        <v>0.2243997110431275</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J5">
-        <v>0.2243997110431275</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.218359</v>
+        <v>0.06894633333333333</v>
       </c>
       <c r="N5">
-        <v>0.6550769999999999</v>
+        <v>0.206839</v>
       </c>
       <c r="O5">
-        <v>0.01966557738178061</v>
+        <v>0.005991935818884376</v>
       </c>
       <c r="P5">
-        <v>0.01966557738178061</v>
+        <v>0.005991935818884375</v>
       </c>
       <c r="Q5">
-        <v>0.6983074964609999</v>
+        <v>0.129235489268</v>
       </c>
       <c r="R5">
-        <v>6.284767468148999</v>
+        <v>1.163119403412</v>
       </c>
       <c r="S5">
-        <v>0.004412949881967834</v>
+        <v>0.0008641490526949479</v>
       </c>
       <c r="T5">
-        <v>0.004412949881967834</v>
+        <v>0.0008641490526949476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>9.593937</v>
       </c>
       <c r="I6">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J6">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>6.123096</v>
+        <v>0.3711636666666667</v>
       </c>
       <c r="N6">
-        <v>18.369288</v>
+        <v>1.113491</v>
       </c>
       <c r="O6">
-        <v>0.5514506761986974</v>
+        <v>0.0322568113697387</v>
       </c>
       <c r="P6">
-        <v>0.5514506761986975</v>
+        <v>0.03225681136973869</v>
       </c>
       <c r="Q6">
-        <v>19.581532422984</v>
+        <v>1.186973611563</v>
       </c>
       <c r="R6">
-        <v>176.233791806856</v>
+        <v>10.682762504067</v>
       </c>
       <c r="S6">
-        <v>0.123745372393525</v>
+        <v>0.007936845581781279</v>
       </c>
       <c r="T6">
-        <v>0.123745372393525</v>
+        <v>0.007936845581781276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>9.593937</v>
       </c>
       <c r="I7">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J7">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.762160000000001</v>
+        <v>6.123096</v>
       </c>
       <c r="N7">
-        <v>14.28648</v>
+        <v>18.369288</v>
       </c>
       <c r="O7">
-        <v>0.4288837464195219</v>
+        <v>0.5321413985496108</v>
       </c>
       <c r="P7">
-        <v>0.4288837464195219</v>
+        <v>0.5321413985496107</v>
       </c>
       <c r="Q7">
-        <v>15.22928767464</v>
+        <v>19.581532422984</v>
       </c>
       <c r="R7">
-        <v>137.06358907176</v>
+        <v>176.233791806856</v>
       </c>
       <c r="S7">
-        <v>0.09624138876763469</v>
+        <v>0.1309343338233249</v>
       </c>
       <c r="T7">
-        <v>0.0962413887676347</v>
+        <v>0.1309343338233249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.454888</v>
+        <v>3.197979</v>
       </c>
       <c r="H8">
-        <v>22.364664</v>
+        <v>9.593937</v>
       </c>
       <c r="I8">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J8">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.218359</v>
+        <v>4.943314666666667</v>
       </c>
       <c r="N8">
-        <v>0.6550769999999999</v>
+        <v>14.829944</v>
       </c>
       <c r="O8">
-        <v>0.01966557738178061</v>
+        <v>0.4296098542617661</v>
       </c>
       <c r="P8">
-        <v>0.01966557738178061</v>
+        <v>0.4296098542617661</v>
       </c>
       <c r="Q8">
-        <v>1.627841888792</v>
+        <v>15.808616494392</v>
       </c>
       <c r="R8">
-        <v>14.650576999128</v>
+        <v>142.277548449528</v>
       </c>
       <c r="S8">
-        <v>0.0102871366946698</v>
+        <v>0.1057062657124878</v>
       </c>
       <c r="T8">
-        <v>0.0102871366946698</v>
+        <v>0.1057062657124878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.454888</v>
+        <v>3.197979</v>
       </c>
       <c r="H9">
-        <v>22.364664</v>
+        <v>9.593937</v>
       </c>
       <c r="I9">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J9">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.123096</v>
+        <v>0.06894633333333333</v>
       </c>
       <c r="N9">
-        <v>18.369288</v>
+        <v>0.206839</v>
       </c>
       <c r="O9">
-        <v>0.5514506761986974</v>
+        <v>0.005991935818884376</v>
       </c>
       <c r="P9">
-        <v>0.5514506761986975</v>
+        <v>0.005991935818884375</v>
       </c>
       <c r="Q9">
-        <v>45.64699489324801</v>
+        <v>0.220488926127</v>
       </c>
       <c r="R9">
-        <v>410.8229540392321</v>
+        <v>1.984400335143</v>
       </c>
       <c r="S9">
-        <v>0.2884659004052311</v>
+        <v>0.00147432642319521</v>
       </c>
       <c r="T9">
-        <v>0.2884659004052312</v>
+        <v>0.00147432642319521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H10">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I10">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J10">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.762160000000001</v>
+        <v>0.3711636666666667</v>
       </c>
       <c r="N10">
-        <v>14.28648</v>
+        <v>1.113491</v>
       </c>
       <c r="O10">
-        <v>0.4288837464195219</v>
+        <v>0.0322568113697387</v>
       </c>
       <c r="P10">
-        <v>0.4288837464195219</v>
+        <v>0.03225681136973869</v>
       </c>
       <c r="Q10">
-        <v>35.50136943808</v>
+        <v>2.533299415020889</v>
       </c>
       <c r="R10">
-        <v>319.5123249427201</v>
+        <v>22.799694735188</v>
       </c>
       <c r="S10">
-        <v>0.2243506834244924</v>
+        <v>0.01693921926618203</v>
       </c>
       <c r="T10">
-        <v>0.2243506834244924</v>
+        <v>0.01693921926618203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.919382666666667</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H11">
-        <v>5.758148</v>
+        <v>20.475868</v>
       </c>
       <c r="I11">
-        <v>0.134681596027112</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J11">
-        <v>0.134681596027112</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.218359</v>
+        <v>6.123096</v>
       </c>
       <c r="N11">
-        <v>0.6550769999999999</v>
+        <v>18.369288</v>
       </c>
       <c r="O11">
-        <v>0.01966557738178061</v>
+        <v>0.5321413985496108</v>
       </c>
       <c r="P11">
-        <v>0.01966557738178061</v>
+        <v>0.5321413985496107</v>
       </c>
       <c r="Q11">
-        <v>0.4191144797106666</v>
+        <v>41.79190181577601</v>
       </c>
       <c r="R11">
-        <v>3.772030317396</v>
+        <v>376.127116341984</v>
       </c>
       <c r="S11">
-        <v>0.002648591348572887</v>
+        <v>0.2794467105667189</v>
       </c>
       <c r="T11">
-        <v>0.002648591348572888</v>
+        <v>0.2794467105667189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.919382666666667</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H12">
-        <v>5.758148</v>
+        <v>20.475868</v>
       </c>
       <c r="I12">
-        <v>0.134681596027112</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J12">
-        <v>0.134681596027112</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.123096</v>
+        <v>4.943314666666667</v>
       </c>
       <c r="N12">
-        <v>18.369288</v>
+        <v>14.829944</v>
       </c>
       <c r="O12">
-        <v>0.5514506761986974</v>
+        <v>0.4296098542617661</v>
       </c>
       <c r="P12">
-        <v>0.5514506761986975</v>
+        <v>0.4296098542617661</v>
       </c>
       <c r="Q12">
-        <v>11.752564328736</v>
+        <v>33.73955286571022</v>
       </c>
       <c r="R12">
-        <v>105.773078958624</v>
+        <v>303.6559757913921</v>
       </c>
       <c r="S12">
-        <v>0.07427025720067068</v>
+        <v>0.2256036852755888</v>
       </c>
       <c r="T12">
-        <v>0.07427025720067072</v>
+        <v>0.2256036852755887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.825289333333334</v>
+      </c>
+      <c r="H13">
+        <v>20.475868</v>
+      </c>
+      <c r="I13">
+        <v>0.5251361975000832</v>
+      </c>
+      <c r="J13">
+        <v>0.5251361975000832</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.206839</v>
+      </c>
+      <c r="O13">
+        <v>0.005991935818884376</v>
+      </c>
+      <c r="P13">
+        <v>0.005991935818884375</v>
+      </c>
+      <c r="Q13">
+        <v>0.4705786734724445</v>
+      </c>
+      <c r="R13">
+        <v>4.235208061252</v>
+      </c>
+      <c r="S13">
+        <v>0.003146582391593489</v>
+      </c>
+      <c r="T13">
+        <v>0.003146582391593488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.099475</v>
+      </c>
+      <c r="H14">
+        <v>3.298425</v>
+      </c>
+      <c r="I14">
+        <v>0.08459335458888541</v>
+      </c>
+      <c r="J14">
+        <v>0.08459335458888539</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3711636666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.113491</v>
+      </c>
+      <c r="O14">
+        <v>0.0322568113697387</v>
+      </c>
+      <c r="P14">
+        <v>0.03225681136973869</v>
+      </c>
+      <c r="Q14">
+        <v>0.4080851724083333</v>
+      </c>
+      <c r="R14">
+        <v>3.672766551675</v>
+      </c>
+      <c r="S14">
+        <v>0.002728711882107097</v>
+      </c>
+      <c r="T14">
+        <v>0.002728711882107095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.099475</v>
+      </c>
+      <c r="H15">
+        <v>3.298425</v>
+      </c>
+      <c r="I15">
+        <v>0.08459335458888541</v>
+      </c>
+      <c r="J15">
+        <v>0.08459335458888539</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.123096</v>
+      </c>
+      <c r="N15">
+        <v>18.369288</v>
+      </c>
+      <c r="O15">
+        <v>0.5321413985496108</v>
+      </c>
+      <c r="P15">
+        <v>0.5321413985496107</v>
+      </c>
+      <c r="Q15">
+        <v>6.7321909746</v>
+      </c>
+      <c r="R15">
+        <v>60.5897187714</v>
+      </c>
+      <c r="S15">
+        <v>0.04501562601893262</v>
+      </c>
+      <c r="T15">
+        <v>0.0450156260189326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.919382666666667</v>
-      </c>
-      <c r="H13">
-        <v>5.758148</v>
-      </c>
-      <c r="I13">
-        <v>0.134681596027112</v>
-      </c>
-      <c r="J13">
-        <v>0.134681596027112</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.762160000000001</v>
-      </c>
-      <c r="N13">
-        <v>14.28648</v>
-      </c>
-      <c r="O13">
-        <v>0.4288837464195219</v>
-      </c>
-      <c r="P13">
-        <v>0.4288837464195219</v>
-      </c>
-      <c r="Q13">
-        <v>9.140407359893334</v>
-      </c>
-      <c r="R13">
-        <v>82.26366623904001</v>
-      </c>
-      <c r="S13">
-        <v>0.05776274747786838</v>
-      </c>
-      <c r="T13">
-        <v>0.05776274747786839</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.099475</v>
+      </c>
+      <c r="H16">
+        <v>3.298425</v>
+      </c>
+      <c r="I16">
+        <v>0.08459335458888541</v>
+      </c>
+      <c r="J16">
+        <v>0.08459335458888539</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.943314666666667</v>
+      </c>
+      <c r="N16">
+        <v>14.829944</v>
+      </c>
+      <c r="O16">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="P16">
+        <v>0.4296098542617661</v>
+      </c>
+      <c r="Q16">
+        <v>5.435050893133333</v>
+      </c>
+      <c r="R16">
+        <v>48.9154580382</v>
+      </c>
+      <c r="S16">
+        <v>0.03634213873644496</v>
+      </c>
+      <c r="T16">
+        <v>0.03634213873644496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.099475</v>
+      </c>
+      <c r="H17">
+        <v>3.298425</v>
+      </c>
+      <c r="I17">
+        <v>0.08459335458888541</v>
+      </c>
+      <c r="J17">
+        <v>0.08459335458888539</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.206839</v>
+      </c>
+      <c r="O17">
+        <v>0.005991935818884376</v>
+      </c>
+      <c r="P17">
+        <v>0.005991935818884375</v>
+      </c>
+      <c r="Q17">
+        <v>0.07580476984166666</v>
+      </c>
+      <c r="R17">
+        <v>0.682242928575</v>
+      </c>
+      <c r="S17">
+        <v>0.0005068779514007296</v>
+      </c>
+      <c r="T17">
+        <v>0.0005068779514007292</v>
       </c>
     </row>
   </sheetData>
